--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Hgf-St14.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Hgf-St14.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1088396666666667</v>
+        <v>0.002837</v>
       </c>
       <c r="H2">
-        <v>0.326519</v>
+        <v>0.008510999999999999</v>
       </c>
       <c r="I2">
-        <v>0.002750770615347974</v>
+        <v>7.108247730492929E-05</v>
       </c>
       <c r="J2">
-        <v>0.002750770615347974</v>
+        <v>7.108247730492929E-05</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.7971666666666667</v>
+        <v>1.097462</v>
       </c>
       <c r="N2">
-        <v>2.3915</v>
+        <v>3.292386</v>
       </c>
       <c r="O2">
-        <v>0.3308932235309289</v>
+        <v>0.3941457306284283</v>
       </c>
       <c r="P2">
-        <v>0.3308932235309289</v>
+        <v>0.3941457306284283</v>
       </c>
       <c r="Q2">
-        <v>0.08676335427777779</v>
+        <v>0.003113499693999999</v>
       </c>
       <c r="R2">
-        <v>0.7808701885000001</v>
+        <v>0.028021497246</v>
       </c>
       <c r="S2">
-        <v>0.0009102113561066478</v>
+        <v>2.801685495223003E-05</v>
       </c>
       <c r="T2">
-        <v>0.000910211356106648</v>
+        <v>2.801685495223002E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1088396666666667</v>
+        <v>0.002837</v>
       </c>
       <c r="H3">
-        <v>0.326519</v>
+        <v>0.008510999999999999</v>
       </c>
       <c r="I3">
-        <v>0.002750770615347974</v>
+        <v>7.108247730492929E-05</v>
       </c>
       <c r="J3">
-        <v>0.002750770615347974</v>
+        <v>7.108247730492929E-05</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>2.039673</v>
       </c>
       <c r="O3">
-        <v>0.282213662521012</v>
+        <v>0.244178053493144</v>
       </c>
       <c r="P3">
-        <v>0.282213662521012</v>
+        <v>0.2441780534931439</v>
       </c>
       <c r="Q3">
-        <v>0.07399910980966667</v>
+        <v>0.001928850767</v>
       </c>
       <c r="R3">
-        <v>0.665991988287</v>
+        <v>0.017359656903</v>
       </c>
       <c r="S3">
-        <v>0.0007763050501125296</v>
+        <v>1.735678094578822E-05</v>
       </c>
       <c r="T3">
-        <v>0.0007763050501125297</v>
+        <v>1.735678094578822E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1088396666666667</v>
+        <v>0.002837</v>
       </c>
       <c r="H4">
-        <v>0.326519</v>
+        <v>0.008510999999999999</v>
       </c>
       <c r="I4">
-        <v>0.002750770615347974</v>
+        <v>7.108247730492929E-05</v>
       </c>
       <c r="J4">
-        <v>0.002750770615347974</v>
+        <v>7.108247730492929E-05</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.170608</v>
+        <v>0.5872626666666667</v>
       </c>
       <c r="N4">
-        <v>0.5118240000000001</v>
+        <v>1.761788</v>
       </c>
       <c r="O4">
-        <v>0.07081709941061849</v>
+        <v>0.2109112414134909</v>
       </c>
       <c r="P4">
-        <v>0.07081709941061851</v>
+        <v>0.2109112414134909</v>
       </c>
       <c r="Q4">
-        <v>0.01856891785066667</v>
+        <v>0.001666064185333333</v>
       </c>
       <c r="R4">
-        <v>0.167120260656</v>
+        <v>0.014994577668</v>
       </c>
       <c r="S4">
-        <v>0.0001948015961229057</v>
+        <v>1.499209353112893E-05</v>
       </c>
       <c r="T4">
-        <v>0.0001948015961229057</v>
+        <v>1.499209353112893E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1088396666666667</v>
+        <v>0.002837</v>
       </c>
       <c r="H5">
-        <v>0.326519</v>
+        <v>0.008510999999999999</v>
       </c>
       <c r="I5">
-        <v>0.002750770615347974</v>
+        <v>7.108247730492929E-05</v>
       </c>
       <c r="J5">
-        <v>0.002750770615347974</v>
+        <v>7.108247730492929E-05</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.76147</v>
+        <v>0.419791</v>
       </c>
       <c r="N5">
-        <v>2.28441</v>
+        <v>1.259373</v>
       </c>
       <c r="O5">
-        <v>0.3160760145374406</v>
+        <v>0.1507649744649369</v>
       </c>
       <c r="P5">
-        <v>0.3160760145374406</v>
+        <v>0.1507649744649369</v>
       </c>
       <c r="Q5">
-        <v>0.08287814097666667</v>
+        <v>0.001190947067</v>
       </c>
       <c r="R5">
-        <v>0.7459032687899999</v>
+        <v>0.010718523603</v>
       </c>
       <c r="S5">
-        <v>0.0008694526130058906</v>
+        <v>1.071674787578212E-05</v>
       </c>
       <c r="T5">
-        <v>0.0008694526130058907</v>
+        <v>1.071674787578212E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>45.22258</v>
       </c>
       <c r="I6">
-        <v>0.3809791902285103</v>
+        <v>0.3776915775490952</v>
       </c>
       <c r="J6">
-        <v>0.3809791902285103</v>
+        <v>0.3776915775490952</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.7971666666666667</v>
+        <v>1.097462</v>
       </c>
       <c r="N6">
-        <v>2.3915</v>
+        <v>3.292386</v>
       </c>
       <c r="O6">
-        <v>0.3308932235309289</v>
+        <v>0.3941457306284283</v>
       </c>
       <c r="P6">
-        <v>0.3308932235309289</v>
+        <v>0.3941457306284283</v>
       </c>
       <c r="Q6">
-        <v>12.01664445222222</v>
+        <v>16.54335436398667</v>
       </c>
       <c r="R6">
-        <v>108.14980007</v>
+        <v>148.89018927588</v>
       </c>
       <c r="S6">
-        <v>0.1260634323529148</v>
+        <v>0.1488655227852918</v>
       </c>
       <c r="T6">
-        <v>0.1260634323529148</v>
+        <v>0.1488655227852918</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>45.22258</v>
       </c>
       <c r="I7">
-        <v>0.3809791902285103</v>
+        <v>0.3776915775490952</v>
       </c>
       <c r="J7">
-        <v>0.3809791902285103</v>
+        <v>0.3776915775490952</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>2.039673</v>
       </c>
       <c r="O7">
-        <v>0.282213662521012</v>
+        <v>0.244178053493144</v>
       </c>
       <c r="P7">
-        <v>0.282213662521012</v>
+        <v>0.2441780534931439</v>
       </c>
       <c r="Q7">
         <v>10.24880837959333</v>
@@ -883,10 +883,10 @@
         <v>92.23927541634001</v>
       </c>
       <c r="S7">
-        <v>0.1075175326186773</v>
+        <v>0.0922239942266929</v>
       </c>
       <c r="T7">
-        <v>0.1075175326186773</v>
+        <v>0.09222399422669289</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>45.22258</v>
       </c>
       <c r="I8">
-        <v>0.3809791902285103</v>
+        <v>0.3776915775490952</v>
       </c>
       <c r="J8">
-        <v>0.3809791902285103</v>
+        <v>0.3776915775490952</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.170608</v>
+        <v>0.5872626666666667</v>
       </c>
       <c r="N8">
-        <v>0.5118240000000001</v>
+        <v>1.761788</v>
       </c>
       <c r="O8">
-        <v>0.07081709941061849</v>
+        <v>0.2109112414134909</v>
       </c>
       <c r="P8">
-        <v>0.07081709941061851</v>
+        <v>0.2109112414134909</v>
       </c>
       <c r="Q8">
-        <v>2.571777976213334</v>
+        <v>8.852510974782223</v>
       </c>
       <c r="R8">
-        <v>23.14600178592</v>
+        <v>79.67259877304001</v>
       </c>
       <c r="S8">
-        <v>0.02697984118778935</v>
+        <v>0.07965939949229943</v>
       </c>
       <c r="T8">
-        <v>0.02697984118778935</v>
+        <v>0.07965939949229943</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>45.22258</v>
       </c>
       <c r="I9">
-        <v>0.3809791902285103</v>
+        <v>0.3776915775490952</v>
       </c>
       <c r="J9">
-        <v>0.3809791902285103</v>
+        <v>0.3776915775490952</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.76147</v>
+        <v>0.419791</v>
       </c>
       <c r="N9">
-        <v>2.28441</v>
+        <v>1.259373</v>
       </c>
       <c r="O9">
-        <v>0.3160760145374406</v>
+        <v>0.1507649744649369</v>
       </c>
       <c r="P9">
-        <v>0.3160760145374406</v>
+        <v>0.1507649744649369</v>
       </c>
       <c r="Q9">
-        <v>11.47854599753333</v>
+        <v>6.328010693593334</v>
       </c>
       <c r="R9">
-        <v>103.3069139778</v>
+        <v>56.95209624234001</v>
       </c>
       <c r="S9">
-        <v>0.120418384069129</v>
+        <v>0.05694266104481107</v>
       </c>
       <c r="T9">
-        <v>0.120418384069129</v>
+        <v>0.05694266104481107</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6906883333333332</v>
+        <v>1.581618666666667</v>
       </c>
       <c r="H10">
-        <v>2.072065</v>
+        <v>4.744856</v>
       </c>
       <c r="I10">
-        <v>0.0174561833004848</v>
+        <v>0.03962825977384063</v>
       </c>
       <c r="J10">
-        <v>0.01745618330048481</v>
+        <v>0.03962825977384063</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.7971666666666667</v>
+        <v>1.097462</v>
       </c>
       <c r="N10">
-        <v>2.3915</v>
+        <v>3.292386</v>
       </c>
       <c r="O10">
-        <v>0.3308932235309289</v>
+        <v>0.3941457306284283</v>
       </c>
       <c r="P10">
-        <v>0.3308932235309289</v>
+        <v>0.3941457306284283</v>
       </c>
       <c r="Q10">
-        <v>0.5505937163888889</v>
+        <v>1.735766385157333</v>
       </c>
       <c r="R10">
-        <v>4.9553434475</v>
+        <v>15.621897466416</v>
       </c>
       <c r="S10">
-        <v>0.005776132762844186</v>
+        <v>0.01561930940209357</v>
       </c>
       <c r="T10">
-        <v>0.005776132762844188</v>
+        <v>0.01561930940209357</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6906883333333332</v>
+        <v>1.581618666666667</v>
       </c>
       <c r="H11">
-        <v>2.072065</v>
+        <v>4.744856</v>
       </c>
       <c r="I11">
-        <v>0.0174561833004848</v>
+        <v>0.03962825977384063</v>
       </c>
       <c r="J11">
-        <v>0.01745618330048481</v>
+        <v>0.03962825977384063</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>2.039673</v>
       </c>
       <c r="O11">
-        <v>0.282213662521012</v>
+        <v>0.244178053493144</v>
       </c>
       <c r="P11">
-        <v>0.282213662521012</v>
+        <v>0.2441780534931439</v>
       </c>
       <c r="Q11">
-        <v>0.4695927816383333</v>
+        <v>1.075328296898667</v>
       </c>
       <c r="R11">
-        <v>4.226335034744999</v>
+        <v>9.677954672088001</v>
       </c>
       <c r="S11">
-        <v>0.004926373422867944</v>
+        <v>0.009676351334897063</v>
       </c>
       <c r="T11">
-        <v>0.004926373422867946</v>
+        <v>0.009676351334897061</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6906883333333332</v>
+        <v>1.581618666666667</v>
       </c>
       <c r="H12">
-        <v>2.072065</v>
+        <v>4.744856</v>
       </c>
       <c r="I12">
-        <v>0.0174561833004848</v>
+        <v>0.03962825977384063</v>
       </c>
       <c r="J12">
-        <v>0.01745618330048481</v>
+        <v>0.03962825977384063</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.170608</v>
+        <v>0.5872626666666667</v>
       </c>
       <c r="N12">
-        <v>0.5118240000000001</v>
+        <v>1.761788</v>
       </c>
       <c r="O12">
-        <v>0.07081709941061849</v>
+        <v>0.2109112414134909</v>
       </c>
       <c r="P12">
-        <v>0.07081709941061851</v>
+        <v>0.2109112414134909</v>
       </c>
       <c r="Q12">
-        <v>0.1178369551733333</v>
+        <v>0.9288255958364445</v>
       </c>
       <c r="R12">
-        <v>1.06053259656</v>
+        <v>8.359430362528002</v>
       </c>
       <c r="S12">
-        <v>0.001236196268120411</v>
+        <v>0.00835804546395703</v>
       </c>
       <c r="T12">
-        <v>0.001236196268120411</v>
+        <v>0.008358045463957029</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6906883333333332</v>
+        <v>1.581618666666667</v>
       </c>
       <c r="H13">
-        <v>2.072065</v>
+        <v>4.744856</v>
       </c>
       <c r="I13">
-        <v>0.0174561833004848</v>
+        <v>0.03962825977384063</v>
       </c>
       <c r="J13">
-        <v>0.01745618330048481</v>
+        <v>0.03962825977384063</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.76147</v>
+        <v>0.419791</v>
       </c>
       <c r="N13">
-        <v>2.28441</v>
+        <v>1.259373</v>
       </c>
       <c r="O13">
-        <v>0.3160760145374406</v>
+        <v>0.1507649744649369</v>
       </c>
       <c r="P13">
-        <v>0.3160760145374406</v>
+        <v>0.1507649744649369</v>
       </c>
       <c r="Q13">
-        <v>0.5259384451833332</v>
+        <v>0.6639492816986667</v>
       </c>
       <c r="R13">
-        <v>4.733446006649999</v>
+        <v>5.975543535288001</v>
       </c>
       <c r="S13">
-        <v>0.005517480846652263</v>
+        <v>0.005974553572892968</v>
       </c>
       <c r="T13">
-        <v>0.005517480846652264</v>
+        <v>0.005974553572892968</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>23.69325166666667</v>
+        <v>23.25273433333334</v>
       </c>
       <c r="H14">
-        <v>71.07975500000001</v>
+        <v>69.75820300000001</v>
       </c>
       <c r="I14">
-        <v>0.5988138558556568</v>
+        <v>0.5826090801997593</v>
       </c>
       <c r="J14">
-        <v>0.5988138558556569</v>
+        <v>0.5826090801997593</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.7971666666666667</v>
+        <v>1.097462</v>
       </c>
       <c r="N14">
-        <v>2.3915</v>
+        <v>3.292386</v>
       </c>
       <c r="O14">
-        <v>0.3308932235309289</v>
+        <v>0.3941457306284283</v>
       </c>
       <c r="P14">
-        <v>0.3308932235309289</v>
+        <v>0.3941457306284283</v>
       </c>
       <c r="Q14">
-        <v>18.88747045361111</v>
+        <v>25.51899232692867</v>
       </c>
       <c r="R14">
-        <v>169.9872340825</v>
+        <v>229.670930942358</v>
       </c>
       <c r="S14">
-        <v>0.1981434470590633</v>
+        <v>0.2296328815860907</v>
       </c>
       <c r="T14">
-        <v>0.1981434470590633</v>
+        <v>0.2296328815860907</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>23.69325166666667</v>
+        <v>23.25273433333334</v>
       </c>
       <c r="H15">
-        <v>71.07975500000001</v>
+        <v>69.75820300000001</v>
       </c>
       <c r="I15">
-        <v>0.5988138558556568</v>
+        <v>0.5826090801997593</v>
       </c>
       <c r="J15">
-        <v>0.5988138558556569</v>
+        <v>0.5826090801997593</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>2.039673</v>
       </c>
       <c r="O15">
-        <v>0.282213662521012</v>
+        <v>0.244178053493144</v>
       </c>
       <c r="P15">
-        <v>0.282213662521012</v>
+        <v>0.2441780534931439</v>
       </c>
       <c r="Q15">
-        <v>16.10882856890167</v>
+        <v>15.80932479862434</v>
       </c>
       <c r="R15">
-        <v>144.979457120115</v>
+        <v>142.283923187619</v>
       </c>
       <c r="S15">
-        <v>0.1689934514293543</v>
+        <v>0.1422603511506082</v>
       </c>
       <c r="T15">
-        <v>0.1689934514293543</v>
+        <v>0.1422603511506082</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>23.69325166666667</v>
+        <v>23.25273433333334</v>
       </c>
       <c r="H16">
-        <v>71.07975500000001</v>
+        <v>69.75820300000001</v>
       </c>
       <c r="I16">
-        <v>0.5988138558556568</v>
+        <v>0.5826090801997593</v>
       </c>
       <c r="J16">
-        <v>0.5988138558556569</v>
+        <v>0.5826090801997593</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.170608</v>
+        <v>0.5872626666666667</v>
       </c>
       <c r="N16">
-        <v>0.5118240000000001</v>
+        <v>1.761788</v>
       </c>
       <c r="O16">
-        <v>0.07081709941061849</v>
+        <v>0.2109112414134909</v>
       </c>
       <c r="P16">
-        <v>0.07081709941061851</v>
+        <v>0.2109112414134909</v>
       </c>
       <c r="Q16">
-        <v>4.042258280346667</v>
+        <v>13.65546277188489</v>
       </c>
       <c r="R16">
-        <v>36.38032452312001</v>
+        <v>122.899164946964</v>
       </c>
       <c r="S16">
-        <v>0.04240626035858582</v>
+        <v>0.1228788043637033</v>
       </c>
       <c r="T16">
-        <v>0.04240626035858584</v>
+        <v>0.1228788043637033</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>23.69325166666667</v>
+        <v>23.25273433333334</v>
       </c>
       <c r="H17">
-        <v>71.07975500000001</v>
+        <v>69.75820300000001</v>
       </c>
       <c r="I17">
-        <v>0.5988138558556568</v>
+        <v>0.5826090801997593</v>
       </c>
       <c r="J17">
-        <v>0.5988138558556569</v>
+        <v>0.5826090801997593</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.76147</v>
+        <v>0.419791</v>
       </c>
       <c r="N17">
-        <v>2.28441</v>
+        <v>1.259373</v>
       </c>
       <c r="O17">
-        <v>0.3160760145374406</v>
+        <v>0.1507649744649369</v>
       </c>
       <c r="P17">
-        <v>0.3160760145374406</v>
+        <v>0.1507649744649369</v>
       </c>
       <c r="Q17">
-        <v>18.04170034661667</v>
+        <v>9.761288598524335</v>
       </c>
       <c r="R17">
-        <v>162.37530311955</v>
+        <v>87.85159738671902</v>
       </c>
       <c r="S17">
-        <v>0.1892706970086535</v>
+        <v>0.08783704309935708</v>
       </c>
       <c r="T17">
-        <v>0.1892706970086535</v>
+        <v>0.08783704309935708</v>
       </c>
     </row>
   </sheetData>
